--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1220006666666667</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N2">
-        <v>0.366002</v>
+        <v>0.227388</v>
       </c>
       <c r="O2">
-        <v>0.003000890193633104</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P2">
-        <v>0.003000890193633103</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q2">
-        <v>6.419206312771778</v>
+        <v>3.468589538381333</v>
       </c>
       <c r="R2">
-        <v>57.772856814946</v>
+        <v>31.217305845432</v>
       </c>
       <c r="S2">
-        <v>0.002302139061277524</v>
+        <v>0.001204117103124306</v>
       </c>
       <c r="T2">
-        <v>0.002302139061277524</v>
+        <v>0.001204117103124306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q3">
-        <v>2111.346465722659</v>
+        <v>1836.314223484977</v>
       </c>
       <c r="R3">
-        <v>19002.11819150393</v>
+        <v>16526.8280113648</v>
       </c>
       <c r="S3">
-        <v>0.757198465635792</v>
+        <v>0.6374744946732869</v>
       </c>
       <c r="T3">
-        <v>0.757198465635792</v>
+        <v>0.6374744946732869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4054843333333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N4">
-        <v>1.216453</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O4">
-        <v>0.009973830412717882</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P4">
-        <v>0.00997383041271788</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q4">
-        <v>21.33502761402989</v>
+        <v>107.2698549897836</v>
       </c>
       <c r="R4">
-        <v>192.015248526269</v>
+        <v>965.428694908052</v>
       </c>
       <c r="S4">
-        <v>0.007651444438850684</v>
+        <v>0.03723861402843861</v>
       </c>
       <c r="T4">
-        <v>0.007651444438850682</v>
+        <v>0.03723861402843862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.395935333333332</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H5">
-        <v>28.187806</v>
+        <v>137.286514</v>
       </c>
       <c r="I5">
-        <v>0.1369942497546098</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J5">
-        <v>0.1369942497546098</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1220006666666667</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N5">
-        <v>0.366002</v>
+        <v>0.09002</v>
       </c>
       <c r="O5">
-        <v>0.003000890193633104</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P5">
-        <v>0.003000890193633103</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q5">
-        <v>1.146310374623555</v>
+        <v>1.373170221142222</v>
       </c>
       <c r="R5">
-        <v>10.316793371612</v>
+        <v>12.35853199028</v>
       </c>
       <c r="S5">
-        <v>0.0004111047006727328</v>
+        <v>0.0004766945556636675</v>
       </c>
       <c r="T5">
-        <v>0.0004111047006727328</v>
+        <v>0.0004766945556636675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>40.12734033333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N6">
-        <v>120.382021</v>
+        <v>0.227388</v>
       </c>
       <c r="O6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q6">
-        <v>377.0338948706583</v>
+        <v>0.7121743145253331</v>
       </c>
       <c r="R6">
-        <v>3393.305053835926</v>
+        <v>6.409568830727999</v>
       </c>
       <c r="S6">
-        <v>0.1352167876393671</v>
+        <v>0.0002472305422814503</v>
       </c>
       <c r="T6">
-        <v>0.1352167876393671</v>
+        <v>0.0002472305422814504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4054843333333333</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N7">
-        <v>1.216453</v>
+        <v>120.382021</v>
       </c>
       <c r="O7">
-        <v>0.009973830412717882</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P7">
-        <v>0.00997383041271788</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q7">
-        <v>3.809904574679778</v>
+        <v>377.0338948706583</v>
       </c>
       <c r="R7">
-        <v>34.289141172118</v>
+        <v>3393.305053835926</v>
       </c>
       <c r="S7">
-        <v>0.001366357414569997</v>
+        <v>0.1308869084242218</v>
       </c>
       <c r="T7">
-        <v>0.001366357414569996</v>
+        <v>0.1308869084242218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.492645</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H8">
-        <v>19.477935</v>
+        <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.09466380931151776</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J8">
-        <v>0.09466380931151776</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1220006666666667</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N8">
-        <v>0.366002</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O8">
-        <v>0.003000890193633104</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P8">
-        <v>0.003000890193633103</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q8">
-        <v>0.79210701843</v>
+        <v>22.02475519263422</v>
       </c>
       <c r="R8">
-        <v>7.128963165870001</v>
+        <v>198.222796733708</v>
       </c>
       <c r="S8">
-        <v>0.0002840756970548877</v>
+        <v>0.007645869920934157</v>
       </c>
       <c r="T8">
-        <v>0.0002840756970548877</v>
+        <v>0.007645869920934158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.492645</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H9">
-        <v>19.477935</v>
+        <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.09466380931151776</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J9">
-        <v>0.09466380931151776</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>40.12734033333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N9">
-        <v>120.382021</v>
+        <v>0.09002</v>
       </c>
       <c r="O9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q9">
-        <v>260.532575578515</v>
+        <v>0.2819406995688888</v>
       </c>
       <c r="R9">
-        <v>2344.793180206635</v>
+        <v>2.53746629612</v>
       </c>
       <c r="S9">
-        <v>0.09343557283416792</v>
+        <v>9.787540862392106E-05</v>
       </c>
       <c r="T9">
-        <v>0.09343557283416792</v>
+        <v>9.787540862392106E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4054843333333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N10">
-        <v>1.216453</v>
+        <v>0.227388</v>
       </c>
       <c r="O10">
-        <v>0.009973830412717882</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P10">
-        <v>0.00997383041271788</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q10">
-        <v>2.632665829395</v>
+        <v>0.9321019668986665</v>
       </c>
       <c r="R10">
-        <v>23.693992464555</v>
+        <v>8.388917702087999</v>
       </c>
       <c r="S10">
-        <v>0.000944160780294942</v>
+        <v>0.0003235781887072909</v>
       </c>
       <c r="T10">
-        <v>0.0009441607802949418</v>
+        <v>0.0003235781887072909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08161033333333333</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H11">
-        <v>0.244831</v>
+        <v>36.892526</v>
       </c>
       <c r="I11">
-        <v>0.001189891797952309</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J11">
-        <v>0.001189891797952308</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1220006666666667</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N11">
-        <v>0.366002</v>
+        <v>120.382021</v>
       </c>
       <c r="O11">
-        <v>0.003000890193633104</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P11">
-        <v>0.003000890193633103</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q11">
-        <v>0.009956515073555555</v>
+        <v>493.4663155194496</v>
       </c>
       <c r="R11">
-        <v>0.08960863566199999</v>
+        <v>4441.196839675046</v>
       </c>
       <c r="S11">
-        <v>3.570734627959546E-06</v>
+        <v>0.1713062972017128</v>
       </c>
       <c r="T11">
-        <v>3.570734627959544E-06</v>
+        <v>0.1713062972017127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08161033333333333</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H12">
-        <v>0.244831</v>
+        <v>36.892526</v>
       </c>
       <c r="I12">
-        <v>0.001189891797952309</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J12">
-        <v>0.001189891797952308</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.12734033333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N12">
-        <v>120.382021</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q12">
-        <v>3.274805620383444</v>
+        <v>28.82625393362978</v>
       </c>
       <c r="R12">
-        <v>29.47325058345099</v>
+        <v>259.436285402668</v>
       </c>
       <c r="S12">
-        <v>0.001174453284322089</v>
+        <v>0.01000700284550991</v>
       </c>
       <c r="T12">
-        <v>0.001174453284322089</v>
+        <v>0.01000700284550991</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.29750866666667</v>
+      </c>
+      <c r="H13">
+        <v>36.892526</v>
+      </c>
+      <c r="I13">
+        <v>0.1817649787009828</v>
+      </c>
+      <c r="J13">
+        <v>0.1817649787009828</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09002</v>
+      </c>
+      <c r="O13">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P13">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q13">
+        <v>0.3690072433911111</v>
+      </c>
+      <c r="R13">
+        <v>3.321065190520001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001281004650528187</v>
+      </c>
+      <c r="T13">
+        <v>0.0001281004650528187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2004796666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.6014389999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.002963216642442438</v>
+      </c>
+      <c r="J14">
+        <v>0.002963216642442439</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07579599999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.227388</v>
+      </c>
+      <c r="O14">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="P14">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="Q14">
+        <v>0.01519555681466666</v>
+      </c>
+      <c r="R14">
+        <v>0.136760011332</v>
+      </c>
+      <c r="S14">
+        <v>5.275121097371438E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.275121097371439E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2004796666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.6014389999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.002963216642442438</v>
+      </c>
+      <c r="J15">
+        <v>0.002963216642442439</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.12734033333333</v>
+      </c>
+      <c r="N15">
+        <v>120.382021</v>
+      </c>
+      <c r="O15">
+        <v>0.9424604146848589</v>
+      </c>
+      <c r="P15">
+        <v>0.9424604146848587</v>
+      </c>
+      <c r="Q15">
+        <v>8.044715814246553</v>
+      </c>
+      <c r="R15">
+        <v>72.402442328219</v>
+      </c>
+      <c r="S15">
+        <v>0.002792714385637375</v>
+      </c>
+      <c r="T15">
+        <v>0.002792714385637375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2004796666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.6014389999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.002963216642442438</v>
+      </c>
+      <c r="J16">
+        <v>0.002963216642442439</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.344072666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.032217999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="P16">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="Q16">
+        <v>0.4699389068557777</v>
+      </c>
+      <c r="R16">
+        <v>4.229450161701999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001631387827550934</v>
+      </c>
+      <c r="T16">
+        <v>0.0001631387827550934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2004796666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.6014389999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002963216642442438</v>
+      </c>
+      <c r="J17">
+        <v>0.002963216642442439</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.244831</v>
-      </c>
-      <c r="I13">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J13">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4054843333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.216453</v>
-      </c>
-      <c r="O13">
-        <v>0.009973830412717882</v>
-      </c>
-      <c r="P13">
-        <v>0.00997383041271788</v>
-      </c>
-      <c r="Q13">
-        <v>0.03309171160477777</v>
-      </c>
-      <c r="R13">
-        <v>0.297825404443</v>
-      </c>
-      <c r="S13">
-        <v>1.18677790022603E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.186777900226029E-05</v>
+      <c r="M17">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09002</v>
+      </c>
+      <c r="O17">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P17">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q17">
+        <v>0.006015726531111111</v>
+      </c>
+      <c r="R17">
+        <v>0.05414153878</v>
+      </c>
+      <c r="S17">
+        <v>2.088352952598101E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.088352952598101E-06</v>
       </c>
     </row>
   </sheetData>
